--- a/trained_models_old_clean/MLP/tic_tac_toe/results_table.xlsx
+++ b/trained_models_old_clean/MLP/tic_tac_toe/results_table.xlsx
@@ -504,11 +504,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.04322740576575398, 'beta_2': 0.7999597479776487, 'epsilon': 0.37705275503017843, 'learning_rate': 'constant', 'momentum': 0.47166406620494905, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7243309792357789}</t>
+          <t>{'beta_1': 0.25978630022382754, 'beta_2': 0.1458274170667079, 'epsilon': 0.36800399160826824, 'learning_rate': 'invscaling', 'momentum': 0.28783376214007295, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.18621159518672326}</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.7465277777777778</v>
+        <v>0.7291666666666666</v>
       </c>
     </row>
     <row r="3">
@@ -540,7 +540,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8296426288894153, 'beta_2': 0.07166958492821525, 'epsilon': 0.8527711995999567, 'learning_rate': 'constant', 'momentum': 0.45489035346577167, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.648998663262847}</t>
+          <t>{'beta_1': 0.42651541646354596, 'beta_2': 0.7437290865595705, 'epsilon': 0.16750614236000674, 'learning_rate': 'invscaling', 'momentum': 0.3045715507819634, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.20991999008691997}</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -576,11 +576,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.024054047646761563, 'beta_2': 0.9416606918501553, 'epsilon': 0.7252807249027527, 'learning_rate': 'invscaling', 'momentum': 0.3937882433723108, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.8163455351451152}</t>
+          <t>{'beta_1': 0.7907242244267251, 'beta_2': 0.12912836178219447, 'epsilon': 0.5021829041693544, 'learning_rate': 'constant', 'momentum': 0.2256774524328019, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.02510953817714312}</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.6875</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="5">
@@ -612,11 +612,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8001098412276646, 'beta_2': 0.5199570020716536, 'epsilon': 0.6782006505888414, 'learning_rate': 'constant', 'momentum': 0.5820197920751071, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5218483217500717}</t>
+          <t>{'beta_1': 0.5464162891792802, 'beta_2': 0.8532828757804921, 'epsilon': 0.039163098458236005, 'learning_rate': 'invscaling', 'momentum': 0.7697890206778347, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.31538720413305543}</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.7604166666666666</v>
       </c>
     </row>
     <row r="6">
@@ -648,7 +648,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8867323269570756, 'beta_2': 0.35414507380630195, 'epsilon': 0.8132998216596776, 'learning_rate': 'adaptive', 'momentum': 0.09067076824664133, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.3007589027504035}</t>
+          <t>{'beta_1': 0.7421553937886406, 'beta_2': 0.1958047535264583, 'epsilon': 0.28604321732657556, 'learning_rate': 'invscaling', 'momentum': 0.045677082037155925, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.16897605441274532}</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -684,11 +684,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.31310710221217825, 'beta_2': 0.19065915415998982, 'epsilon': 0.9010217089966883, 'learning_rate': 'constant', 'momentum': 0.2711856325092864, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.19861675008444746}</t>
+          <t>{'beta_1': 0.28685443267485683, 'beta_2': 0.44629001466989243, 'epsilon': 0.12367189482556977, 'learning_rate': 'constant', 'momentum': 0.9792702400358185, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.8809980607861312}</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.7361111111111112</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="8">
@@ -720,11 +720,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'beta_1': 7.362573367298308e-05, 'beta_2': 0.2539858490904201, 'epsilon': 0.7483515060430702, 'learning_rate': 'constant', 'momentum': 0.9682855167608868, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.37554935508454257}</t>
+          <t>{'beta_1': 0.8867323269570756, 'beta_2': 0.35414507380630195, 'epsilon': 0.8132998216596776, 'learning_rate': 'adaptive', 'momentum': 0.09067076824664133, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.3007589027504035}</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.7048611111111112</v>
+        <v>0.7013888888888888</v>
       </c>
     </row>
     <row r="9">
@@ -756,11 +756,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.7277370293981251, 'beta_2': 0.33601430464162907, 'epsilon': 0.7646935113620771, 'learning_rate': 'invscaling', 'momentum': 0.9488092614228859, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.07580426311938915}</t>
+          <t>{'beta_1': 0.8871556617122927, 'beta_2': 0.7079002294098619, 'epsilon': 0.277495899957879, 'learning_rate': 'constant', 'momentum': 0.5249704422542643, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.3335074657912753}</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.6909722222222222</v>
+        <v>0.6458333333333334</v>
       </c>
     </row>
     <row r="10">
@@ -792,11 +792,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8571206004221198, 'beta_2': 0.45285074832438077, 'epsilon': 0.43389557352322544, 'learning_rate': 'constant', 'momentum': 0.40746848288962145, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9798641184223712}</t>
+          <t>{'beta_1': 0.3759651167322159, 'beta_2': 0.06171729066506716, 'epsilon': 0.38508415698973375, 'learning_rate': 'constant', 'momentum': 0.9881924181265406, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.7921537410440993}</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.7361111111111112</v>
+        <v>0.6701388888888888</v>
       </c>
     </row>
     <row r="11">
@@ -828,11 +828,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.3887455424240846, 'beta_2': 0.9511905545981254, 'epsilon': 0.29972889055645363, 'learning_rate': 'adaptive', 'momentum': 0.8863046660865599, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9078755943543261}</t>
+          <t>{'beta_1': 0.24955315384928356, 'beta_2': 0.010154777764660419, 'epsilon': 0.8302355151440006, 'learning_rate': 'constant', 'momentum': 0.23125495297968846, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9454309703916057}</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="12">
@@ -864,11 +864,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.7455682327730924, 'beta_2': 0.6994113130413, 'epsilon': 0.6646454584360839, 'learning_rate': 'adaptive', 'momentum': 0.18219764492303292, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5440711336888929}</t>
+          <t>{'beta_1': 0.325001127020431, 'beta_2': 0.7754352969615961, 'epsilon': 0.9122374227403983, 'learning_rate': 'adaptive', 'momentum': 0.5607358225071297, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.6799622373862481}</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.7326388888888888</v>
+        <v>0.7291666666666666</v>
       </c>
     </row>
     <row r="13">
@@ -900,11 +900,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6640009209479042, 'beta_2': 0.42263138572595504, 'epsilon': 0.19879194898555852, 'learning_rate': 'constant', 'momentum': 0.6495342241752968, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.8668609136593749}</t>
+          <t>{'beta_1': 0.946612751169439, 'beta_2': 0.6475340962509533, 'epsilon': 0.6639261533272113, 'learning_rate': 'invscaling', 'momentum': 0.5595705341197842, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.6004710432403803}</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.6805555555555556</v>
+        <v>0.7222222222222222</v>
       </c>
     </row>
     <row r="14">
@@ -936,11 +936,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6559484946101716, 'beta_2': 0.37346672868995284, 'epsilon': 0.7842813127380445, 'learning_rate': 'adaptive', 'momentum': 0.5082713750461963, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.44787809291973113}</t>
+          <t>{'beta_1': 0.8013857329555096, 'beta_2': 0.27456954982004717, 'epsilon': 0.7882252319748868, 'learning_rate': 'adaptive', 'momentum': 0.43696518540025087, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9700310320731962}</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.7013888888888888</v>
+        <v>0.6701388888888888</v>
       </c>
     </row>
     <row r="15">
@@ -972,11 +972,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.5553817511197982, 'beta_2': 0.7408615040451714, 'epsilon': 0.769773517554749, 'learning_rate': 'adaptive', 'momentum': 0.9205475833293032, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7720568212000914}</t>
+          <t>{'beta_1': 0.5284109891018522, 'beta_2': 0.30414191798303086, 'epsilon': 0.9969642890773448, 'learning_rate': 'invscaling', 'momentum': 0.5973029395241212, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.005189627256445006}</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.7743055555555556</v>
+        <v>0.7291666666666666</v>
       </c>
     </row>
     <row r="16">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.19386403055813542, 'beta_2': 0.9918938015730331, 'epsilon': 0.4995213809388588, 'learning_rate': 'constant', 'momentum': 0.6586040703899139, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.35909708773029625}</t>
+          <t>{'beta_1': 0.6063821830010174, 'beta_2': 0.14425342131756033, 'epsilon': 0.6955945558930755, 'learning_rate': 'adaptive', 'momentum': 0.11207188087491515, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.2847797050309543}</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.7361111111111112</v>
+        <v>0.6631944444444444</v>
       </c>
     </row>
     <row r="17">
@@ -1044,11 +1044,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.9242382624117111, 'beta_2': 0.7144635702147788, 'epsilon': 0.490327794238027, 'learning_rate': 'constant', 'momentum': 0.3068100995451961, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9594333408334251}</t>
+          <t>{'beta_1': 0.11370282374947131, 'beta_2': 0.6304944160294864, 'epsilon': 0.13268218376992516, 'learning_rate': 'constant', 'momentum': 0.3742961833209161, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.23780724253903884}</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.7152777777777778</v>
+        <v>0.7326388888888888</v>
       </c>
     </row>
     <row r="18">
@@ -1080,11 +1080,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.18678021333564818, 'beta_2': 0.6738733596115727, 'epsilon': 0.2767890965633854, 'learning_rate': 'constant', 'momentum': 0.04866731114905576, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.8906310472988932}</t>
+          <t>{'beta_1': 0.4887627777796243, 'beta_2': 0.7060789358082146, 'epsilon': 0.5446559959678442, 'learning_rate': 'adaptive', 'momentum': 0.826113660191025, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7540524075873528}</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.7256944444444444</v>
       </c>
     </row>
     <row r="19">
@@ -1116,11 +1116,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6640009209479042, 'beta_2': 0.42263138572595504, 'epsilon': 0.19879194898555852, 'learning_rate': 'constant', 'momentum': 0.6495342241752968, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.8668609136593749}</t>
+          <t>{'beta_1': 0.5271870108472929, 'beta_2': 0.23728561484836336, 'epsilon': 0.27103479515720774, 'learning_rate': 'invscaling', 'momentum': 0.5323203282585608, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5171213804274264}</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.7673611111111112</v>
+        <v>0.7291666666666666</v>
       </c>
     </row>
     <row r="20">
@@ -1152,11 +1152,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8398002672922774, 'beta_2': 0.059698160042433585, 'epsilon': 0.3499209361375093, 'learning_rate': 'constant', 'momentum': 0.13442806125258255, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.37966146833187575}</t>
+          <t>{'beta_1': 0.5776321387927946, 'beta_2': 0.3060762685462834, 'epsilon': 0.9877602540895848, 'learning_rate': 'constant', 'momentum': 0.3145732950042872, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5646665355933133}</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.7256944444444444</v>
+        <v>0.7673611111111112</v>
       </c>
     </row>
     <row r="21">
@@ -1190,11 +1190,11 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.04044956203133352, 'beta_2': 0.4913894165920973, 'epsilon': 0.8142308472831555, 'learning_rate': 'constant', 'momentum': 0.6939881399885446, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5704366902119271}</t>
+          <t>{'beta_1': 0.6114836269996989, 'beta_2': 0.6163170628778821, 'epsilon': 0.9428043304361096, 'learning_rate': 'invscaling', 'momentum': 0.4499499899112276, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9023485831739843}</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.6805555555555556</v>
+        <v>0.7256944444444444</v>
       </c>
     </row>
   </sheetData>
